--- a/data/tab1.xlsx
+++ b/data/tab1.xlsx
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>5.433965535927175</v>
+        <v>5.43396553592717</v>
       </c>
     </row>
     <row r="3">
@@ -396,7 +396,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>5.057610568638707</v>
+        <v>5.057610568638713</v>
       </c>
     </row>
     <row r="5">
@@ -416,7 +416,7 @@
         </is>
       </c>
       <c r="B6">
-        <v>5.428551380386677</v>
+        <v>5.428551380386653</v>
       </c>
     </row>
     <row r="7">
@@ -426,7 +426,7 @@
         </is>
       </c>
       <c r="B7">
-        <v>5.645219797110361</v>
+        <v>5.64521979711036</v>
       </c>
     </row>
   </sheetData>
